--- a/biology/Histoire de la zoologie et de la botanique/Larry_Lee_Grismer/Larry_Lee_Grismer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Larry_Lee_Grismer/Larry_Lee_Grismer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larry Lee Grismer est un herpétologiste américain, né en 1955.
-Après des études à l'université d'État de San Diego, il est diplômé de l'université de Loma Linda[1]. Il est actuellement professeur de biologie à l'université La Sierra.
+Après des études à l'université d'État de San Diego, il est diplômé de l'université de Loma Linda. Il est actuellement professeur de biologie à l'université La Sierra.
 Après avoir étudié l'herpétofaune de la péninsule de Basse-Californie, il est devenu un spécialiste de l'herpétofaune de l'Asie du Sud-Est.
 </t>
         </is>
@@ -513,11 +525,13 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Crotaphytus grismeri Mcguire, 1994[1]
-Cyrtodactylus grismeri Ngo, 2008[1]
-Cyrtodactylus leegrismeri Chan &amp; Norhayati, 2010[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Crotaphytus grismeri Mcguire, 1994
+Cyrtodactylus grismeri Ngo, 2008
+Cyrtodactylus leegrismeri Chan &amp; Norhayati, 2010
 Dendrelaphis grismeri Vogel &amp; Van Rooijen, 2008</t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthosaura bintangensis Wood, Grismer, Grismer, Ahmad, Onn &amp; Bauer, 2009
